--- a/00.avaliacoes-mba-ciencia-de-dados.xlsx
+++ b/00.avaliacoes-mba-ciencia-de-dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beni\MBA-USP-DS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USP\MBA-USP-DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7D591C-23E8-4449-9F25-0CF073B413D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E53101F-8E38-44AE-BCE5-39C6DDEC6586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFD5C4A1-9AFE-4C7C-85D2-5A73D0E1E09D}"/>
   </bookViews>
@@ -264,6 +264,27 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,30 +294,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,353 +626,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="1" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="J5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
         <f>(C6*3+C7*3+C8*4)/10</f>
-        <v>7</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>9.75</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f>(G6*3+G7*3+G8*4)/10</f>
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="J6" s="4" t="s">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="K6" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="L6" s="7">
         <f>(K6*3+K7*3+K8*4)/10</f>
-        <v>0</v>
+        <v>9.9250000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="F7" s="5" t="s">
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>9.25</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="8"/>
+      <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9"/>
+      <c r="K7" s="4">
+        <v>10</v>
+      </c>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="13" t="s">
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10"/>
+      <c r="K8" s="5">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="1" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="1" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
         <f>(C11*3+C12*3+C13*4)/10</f>
-        <v>7</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>9.76</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>9.75</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f>(G11*3+G12*3+G13*4)/10</f>
-        <v>7.0150000000000006</v>
-      </c>
-      <c r="J11" s="4" t="s">
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="K11" s="3">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7">
         <f>(K11*3+K12*3+K13*4)/10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="8"/>
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>9.5</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="8"/>
+      <c r="J12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9"/>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="J13" s="13" t="s">
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10"/>
+      <c r="K13" s="5">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="1" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>9.25</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f>(C16*3+C17*3+C18*4)/10</f>
-        <v>7.0150000000000006</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="6">
-        <v>10</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7">
         <f>(G16*3+G17*3+G18*4)/10</f>
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="J16" s="4" t="s">
+        <v>9.9400000000000013</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f>(K16*3+K17*3+K18*4)/10</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="F17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="J17" s="5" t="s">
+      <c r="H17" s="8"/>
+      <c r="J17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="F18" s="13" t="s">
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="12">
-        <v>2.7</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="J18" s="13" t="s">
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="J18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="5">
         <v>0</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="F5:H5"/>
@@ -980,13 +982,11 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="L11:L13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
